--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/174.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/174.xlsx
@@ -479,13 +479,13 @@
         <v>-2.977924594424189</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.33026134306741</v>
+        <v>-14.59585179851467</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.02540496470592</v>
+        <v>-0.8655217624027607</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.82300679505982</v>
+        <v>-12.1537445494475</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-3.041980619666152</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.60082687359452</v>
+        <v>-14.85278824178354</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.8744376206379761</v>
+        <v>-0.7239415994723351</v>
       </c>
       <c r="G3" t="n">
-        <v>-11.7320414749155</v>
+        <v>-12.03940946873071</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-3.039787175814037</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.05054747620781</v>
+        <v>-15.27669082319295</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.7315089505148527</v>
+        <v>-0.5874674346501825</v>
       </c>
       <c r="G4" t="n">
-        <v>-11.35337279982426</v>
+        <v>-11.65670836436421</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-2.922716163343485</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.6446630868625</v>
+        <v>-15.85132508721914</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.6479407814761152</v>
+        <v>-0.4883587021383162</v>
       </c>
       <c r="G5" t="n">
-        <v>-11.30565135596617</v>
+        <v>-11.58175493059533</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-2.654381253748983</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.20938647763751</v>
+        <v>-16.40061265294376</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4663767256670581</v>
+        <v>-0.3205284720102297</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.92758492680565</v>
+        <v>-11.23356513651963</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-2.206178828290243</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.88775105707871</v>
+        <v>-17.05456008758514</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3814076802242559</v>
+        <v>-0.2333468273871758</v>
       </c>
       <c r="G7" t="n">
-        <v>-10.77902656646058</v>
+        <v>-11.07250362696071</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-1.572382425681002</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.5389098312148</v>
+        <v>-17.70255052443353</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.2215113856182554</v>
+        <v>-0.05891807662685938</v>
       </c>
       <c r="G8" t="n">
-        <v>-10.36760094965934</v>
+        <v>-10.67825511148782</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.7646074420132968</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.30238747143005</v>
+        <v>-18.44687412559134</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.2687091373626779</v>
+        <v>-0.119967484777828</v>
       </c>
       <c r="G9" t="n">
-        <v>-10.2109253615524</v>
+        <v>-10.53066558155304</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.1801243450396453</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.84289010194787</v>
+        <v>-18.95882244361135</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.07473357845966448</v>
+        <v>0.08621010037367408</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.915039317329395</v>
+        <v>-10.24730887114956</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>1.19745781441422</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.47484246781514</v>
+        <v>-19.57731592215733</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1486865695343909</v>
+        <v>0.309839725213197</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.560499756375453</v>
+        <v>-9.899865338335834</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>2.208543981584846</v>
       </c>
       <c r="E12" t="n">
-        <v>-20.07212641575753</v>
+        <v>-20.16658738076058</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.0370277462754934</v>
+        <v>0.1352407745159382</v>
       </c>
       <c r="G12" t="n">
-        <v>-9.037711011602489</v>
+        <v>-9.379564131102798</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>3.130783811398537</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.82488145994541</v>
+        <v>-20.91407931920609</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1689141774248576</v>
+        <v>0.3348983928522608</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.408049798732515</v>
+        <v>-8.737085553750775</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>3.883895013803013</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.62077564199678</v>
+        <v>-21.7301618322394</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3972963081959272</v>
+        <v>0.5624949854528267</v>
       </c>
       <c r="G14" t="n">
-        <v>-8.110854524225333</v>
+        <v>-8.436538649716111</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>4.403985179962391</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.48613758292635</v>
+        <v>-22.59060106730048</v>
       </c>
       <c r="F15" t="n">
-        <v>0.575482549871819</v>
+        <v>0.7500684082662361</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.421230564340255</v>
+        <v>-7.737318031848047</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>4.653112448539868</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.54539652894188</v>
+        <v>-23.66217987029007</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8501328788855484</v>
+        <v>1.03150055015198</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.053939100418471</v>
+        <v>-7.381024102313314</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>4.623482302856497</v>
       </c>
       <c r="E17" t="n">
-        <v>-24.20969997513106</v>
+        <v>-24.31556433590926</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9843944445274493</v>
+        <v>1.165133685257478</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.921130780392002</v>
+        <v>-7.281561877624721</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>4.341002913311995</v>
       </c>
       <c r="E18" t="n">
-        <v>-25.10590738155573</v>
+        <v>-25.20677048264839</v>
       </c>
       <c r="F18" t="n">
-        <v>1.310720092857472</v>
+        <v>1.517971246841995</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.377891858580263</v>
+        <v>-6.729315451457873</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>3.857333285192218</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.89660391937894</v>
+        <v>-25.98722883964937</v>
       </c>
       <c r="F19" t="n">
-        <v>1.410719101962575</v>
+        <v>1.621348070080264</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.290435275597533</v>
+        <v>-6.663421891255466</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>3.236205549942443</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.65953168287484</v>
+        <v>-26.75803816945599</v>
       </c>
       <c r="F20" t="n">
-        <v>1.554027448868109</v>
+        <v>1.768872138500833</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.983001820268121</v>
+        <v>-6.352073837376379</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.544609499058303</v>
       </c>
       <c r="E21" t="n">
-        <v>-27.30613433562201</v>
+        <v>-27.40469319141452</v>
       </c>
       <c r="F21" t="n">
-        <v>1.814590460024141</v>
+        <v>2.036426439374348</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.734496820029318</v>
+        <v>-6.117093185973079</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.844535223217386</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.88156723012155</v>
+        <v>-27.97647333342123</v>
       </c>
       <c r="F22" t="n">
-        <v>1.936951122382913</v>
+        <v>2.165490360788083</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.036467601719852</v>
+        <v>-5.38786500999178</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.189110522672999</v>
       </c>
       <c r="E23" t="n">
-        <v>-28.28971977121236</v>
+        <v>-28.38198122933801</v>
       </c>
       <c r="F23" t="n">
-        <v>2.123987760779811</v>
+        <v>2.358549458492176</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.060374146708844</v>
+        <v>-5.437092068676669</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.6209613638433318</v>
       </c>
       <c r="E24" t="n">
-        <v>-28.58311827789544</v>
+        <v>-28.66875503078317</v>
       </c>
       <c r="F24" t="n">
-        <v>2.002281713563126</v>
+        <v>2.230401998277361</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.750440061536662</v>
+        <v>-5.097791948230497</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.1690259420715576</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.88001242943727</v>
+        <v>-28.9727713950709</v>
       </c>
       <c r="F25" t="n">
-        <v>2.297644065672466</v>
+        <v>2.5181708147385</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.460301538261171</v>
+        <v>-4.785946386843423</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-0.1494167646286034</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.90966649537378</v>
+        <v>-29.00919418157658</v>
       </c>
       <c r="F26" t="n">
-        <v>2.192251027796571</v>
+        <v>2.409845101026058</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.565602930017174</v>
+        <v>-4.883156735443239</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-0.3277688676605895</v>
       </c>
       <c r="E27" t="n">
-        <v>-29.05521362606525</v>
+        <v>-29.14329863958438</v>
       </c>
       <c r="F27" t="n">
-        <v>2.155147441543119</v>
+        <v>2.384472218118793</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.245103356451719</v>
+        <v>-4.551790550519152</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-0.3687870418815444</v>
       </c>
       <c r="E28" t="n">
-        <v>-28.86055726741446</v>
+        <v>-28.93537977815492</v>
       </c>
       <c r="F28" t="n">
-        <v>2.353338721961169</v>
+        <v>2.573813101815836</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.289145863211286</v>
+        <v>-4.580096109262964</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-0.2809248731849825</v>
       </c>
       <c r="E29" t="n">
-        <v>-28.85626299208237</v>
+        <v>-28.92684359670212</v>
       </c>
       <c r="F29" t="n">
-        <v>2.216079018968513</v>
+        <v>2.43822921358692</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.209374461996649</v>
+        <v>-4.48585771340822</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-0.07766887637628403</v>
       </c>
       <c r="E30" t="n">
-        <v>-28.67283982926979</v>
+        <v>-28.75228392291339</v>
       </c>
       <c r="F30" t="n">
-        <v>2.279759979990668</v>
+        <v>2.512514939910874</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.189591992402801</v>
+        <v>-4.462959275738041</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.2232149980631693</v>
       </c>
       <c r="E31" t="n">
-        <v>-28.25418726129992</v>
+        <v>-28.32475477361682</v>
       </c>
       <c r="F31" t="n">
-        <v>2.156299564193191</v>
+        <v>2.379758989095772</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.465800305454696</v>
+        <v>-4.714475505630441</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.6006740124532031</v>
       </c>
       <c r="E32" t="n">
-        <v>-28.12038392625748</v>
+        <v>-28.16247567989363</v>
       </c>
       <c r="F32" t="n">
-        <v>2.143600030436717</v>
+        <v>2.362058195653758</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.701946171810909</v>
+        <v>-4.938222961195539</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.032163582520135</v>
       </c>
       <c r="E33" t="n">
-        <v>-27.54502958557498</v>
+        <v>-27.58518367839056</v>
       </c>
       <c r="F33" t="n">
-        <v>2.073137256542547</v>
+        <v>2.290443299109516</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.964394474576149</v>
+        <v>-5.18595551556668</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.495429459389814</v>
       </c>
       <c r="E34" t="n">
-        <v>-26.98450882401217</v>
+        <v>-27.04080572623159</v>
       </c>
       <c r="F34" t="n">
-        <v>2.149491566715494</v>
+        <v>2.372872437801024</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.846288810640939</v>
+        <v>-5.046522490302297</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.96694557901981</v>
       </c>
       <c r="E35" t="n">
-        <v>-26.75651946232635</v>
+        <v>-26.80757944340908</v>
       </c>
       <c r="F35" t="n">
-        <v>1.949755394562121</v>
+        <v>2.173869434606788</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.156497834172797</v>
+        <v>-5.36268851162714</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>2.423897041250866</v>
       </c>
       <c r="E36" t="n">
-        <v>-25.87556458871228</v>
+        <v>-25.92528915490516</v>
       </c>
       <c r="F36" t="n">
-        <v>1.873558192023275</v>
+        <v>2.095917863487151</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.38484068803534</v>
+        <v>-5.596634871105943</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>2.848764741458198</v>
       </c>
       <c r="E37" t="n">
-        <v>-25.39260262918385</v>
+        <v>-25.45255228389611</v>
       </c>
       <c r="F37" t="n">
-        <v>1.750621468339467</v>
+        <v>1.962847697403847</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.633044565308784</v>
+        <v>-5.857145513050608</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>3.226051724315279</v>
       </c>
       <c r="E38" t="n">
-        <v>-24.92491938707171</v>
+        <v>-24.9889538402706</v>
       </c>
       <c r="F38" t="n">
-        <v>1.743551624804935</v>
+        <v>1.965492342577876</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.797470796698021</v>
+        <v>-6.023771251317256</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>3.545881363603264</v>
       </c>
       <c r="E39" t="n">
-        <v>-24.46607344937774</v>
+        <v>-24.54742901923623</v>
       </c>
       <c r="F39" t="n">
-        <v>1.631586250902494</v>
+        <v>1.839649127663205</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.90820549413334</v>
+        <v>-6.116320740105418</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>3.808128742811961</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.99832474575139</v>
+        <v>-24.08237732999527</v>
       </c>
       <c r="F40" t="n">
-        <v>1.638237140746091</v>
+        <v>1.857795059401837</v>
       </c>
       <c r="G40" t="n">
-        <v>-6.02107423693186</v>
+        <v>-6.22108534744491</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>4.014680799402497</v>
       </c>
       <c r="E41" t="n">
-        <v>-23.19001906060607</v>
+        <v>-23.25868818901092</v>
       </c>
       <c r="F41" t="n">
-        <v>1.707285945933354</v>
+        <v>1.911316393418813</v>
       </c>
       <c r="G41" t="n">
-        <v>-6.132659934051892</v>
+        <v>-6.334085013271848</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>4.169195700260233</v>
       </c>
       <c r="E42" t="n">
-        <v>-22.79006230109418</v>
+        <v>-22.8600406597832</v>
       </c>
       <c r="F42" t="n">
-        <v>1.829594239080759</v>
+        <v>2.032708225367297</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.186992990845055</v>
+        <v>-6.370520892080371</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>4.280332726786632</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.97506644919673</v>
+        <v>-22.06213026309421</v>
       </c>
       <c r="F43" t="n">
-        <v>2.010608418170464</v>
+        <v>2.210658805592038</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.181441854440163</v>
+        <v>-6.369656800092817</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>4.354424307837229</v>
       </c>
       <c r="E44" t="n">
-        <v>-21.72103649715872</v>
+        <v>-21.81184470966893</v>
       </c>
       <c r="F44" t="n">
-        <v>1.974133262453415</v>
+        <v>2.176199864512615</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.359248419333645</v>
+        <v>-6.548589303030687</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>4.396418538871426</v>
       </c>
       <c r="E45" t="n">
-        <v>-21.17826889824928</v>
+        <v>-21.27178721744773</v>
       </c>
       <c r="F45" t="n">
-        <v>2.042763113949743</v>
+        <v>2.248914514495562</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.455149537649288</v>
+        <v>-6.632445502731943</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>4.411070848209036</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.70076642900585</v>
+        <v>-20.81245686454861</v>
       </c>
       <c r="F46" t="n">
-        <v>2.195366995872902</v>
+        <v>2.394186706827354</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.398721712401449</v>
+        <v>-6.583873059189139</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>4.396790618002143</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.17302879375871</v>
+        <v>-20.29011325807227</v>
       </c>
       <c r="F47" t="n">
-        <v>2.069864180832116</v>
+        <v>2.259859679671245</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.773096112160606</v>
+        <v>-6.948807908599411</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>4.34869296788178</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.72554697493135</v>
+        <v>-19.85686277243387</v>
       </c>
       <c r="F48" t="n">
-        <v>2.110947827149452</v>
+        <v>2.303771263402394</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.814376143020568</v>
+        <v>-7.003651565203402</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>4.260116594562481</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.0433987199689</v>
+        <v>-19.17658671677778</v>
       </c>
       <c r="F49" t="n">
-        <v>2.120190992955711</v>
+        <v>2.308720153876566</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.263075546012204</v>
+        <v>-7.447493723840758</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>4.122870317452281</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.51186431689766</v>
+        <v>-18.67585850229313</v>
       </c>
       <c r="F50" t="n">
-        <v>2.099688446705568</v>
+        <v>2.281200133303258</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.251580504117168</v>
+        <v>-7.424791670713204</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>3.933311905810998</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.67923313307242</v>
+        <v>-17.86213260377133</v>
       </c>
       <c r="F51" t="n">
-        <v>2.126737144376574</v>
+        <v>2.297879727123617</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.639505437317512</v>
+        <v>-7.821881215902756</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>3.690100965884468</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.36071049723606</v>
+        <v>-17.56419106800217</v>
       </c>
       <c r="F52" t="n">
-        <v>2.021841614008665</v>
+        <v>2.190601397638514</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.558110590550501</v>
+        <v>-7.748341750840781</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>3.393213690336966</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.82739554097835</v>
+        <v>-17.04992541237917</v>
       </c>
       <c r="F53" t="n">
-        <v>2.119719670053409</v>
+        <v>2.274418320431244</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.660767337132475</v>
+        <v>-7.854926188275273</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>3.048824866289356</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.48029240803851</v>
+        <v>-16.70161778757789</v>
       </c>
       <c r="F54" t="n">
-        <v>1.863215272778312</v>
+        <v>2.01574060088442</v>
       </c>
       <c r="G54" t="n">
-        <v>-8.064154279988896</v>
+        <v>-8.266901681795867</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>2.664281179687277</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.90852535833465</v>
+        <v>-16.1404162262673</v>
       </c>
       <c r="F55" t="n">
-        <v>1.944701765665215</v>
+        <v>2.099531339071467</v>
       </c>
       <c r="G55" t="n">
-        <v>-8.195496262097093</v>
+        <v>-8.35969992433802</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>2.248357208827185</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.51652871895053</v>
+        <v>-15.74247568139304</v>
       </c>
       <c r="F56" t="n">
-        <v>1.773690105946589</v>
+        <v>1.91432762307241</v>
       </c>
       <c r="G56" t="n">
-        <v>-8.402760508384459</v>
+        <v>-8.558467266081106</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>1.816505584502141</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.86721595951512</v>
+        <v>-15.11213366877529</v>
       </c>
       <c r="F57" t="n">
-        <v>1.680184879050981</v>
+        <v>1.816737597690184</v>
       </c>
       <c r="G57" t="n">
-        <v>-8.705546196205058</v>
+        <v>-8.850072127274871</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>1.384217536916802</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.65958512874819</v>
+        <v>-14.91303901946116</v>
       </c>
       <c r="F58" t="n">
-        <v>1.557719478269475</v>
+        <v>1.697702380253211</v>
       </c>
       <c r="G58" t="n">
-        <v>-8.749313764604947</v>
+        <v>-8.901551062048538</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.9658073647688049</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.17545795426684</v>
+        <v>-14.45162699041021</v>
       </c>
       <c r="F59" t="n">
-        <v>1.614461518785516</v>
+        <v>1.755282328151122</v>
       </c>
       <c r="G59" t="n">
-        <v>-8.909236243816631</v>
+        <v>-9.049507176462884</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.5778827180450803</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.04660350969857</v>
+        <v>-14.33349514186932</v>
       </c>
       <c r="F60" t="n">
-        <v>1.471833971627752</v>
+        <v>1.598646016952711</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.82594301313757</v>
+        <v>-8.973231420106988</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.232531475619361</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.76836588970621</v>
+        <v>-14.08591969513228</v>
       </c>
       <c r="F61" t="n">
-        <v>1.391316309151137</v>
+        <v>1.516950047220341</v>
       </c>
       <c r="G61" t="n">
-        <v>-9.027773953745619</v>
+        <v>-9.157191367336081</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.06358479317612192</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.45818305078004</v>
+        <v>-13.78233537683833</v>
       </c>
       <c r="F62" t="n">
-        <v>1.385634249717828</v>
+        <v>1.498149500339622</v>
       </c>
       <c r="G62" t="n">
-        <v>-9.337302177529706</v>
+        <v>-9.481330601091535</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3033626507394039</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.02226173536193</v>
+        <v>-13.34726506110493</v>
       </c>
       <c r="F63" t="n">
-        <v>1.333945838098693</v>
+        <v>1.434861308402718</v>
       </c>
       <c r="G63" t="n">
-        <v>-9.325767858726145</v>
+        <v>-9.472925342667146</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4844403016614151</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.77057530553258</v>
+        <v>-13.10344710528347</v>
       </c>
       <c r="F64" t="n">
-        <v>1.273825983449487</v>
+        <v>1.376705299179771</v>
       </c>
       <c r="G64" t="n">
-        <v>-9.52581824614772</v>
+        <v>-9.694669675897462</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.6084702864312284</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.53106471734605</v>
+        <v>-12.87712046605855</v>
       </c>
       <c r="F65" t="n">
-        <v>1.26701798597179</v>
+        <v>1.361649150911786</v>
       </c>
       <c r="G65" t="n">
-        <v>-9.695389752553757</v>
+        <v>-9.857577200157058</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.6760641281837413</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.32247814847167</v>
+        <v>-12.66844225106428</v>
       </c>
       <c r="F66" t="n">
-        <v>1.073016242463093</v>
+        <v>1.169349406772513</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.719401035965483</v>
+        <v>-9.904565475056014</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.6899578533610397</v>
       </c>
       <c r="E67" t="n">
-        <v>-12.13685547878167</v>
+        <v>-12.4900727171486</v>
       </c>
       <c r="F67" t="n">
-        <v>1.043322899618058</v>
+        <v>1.145338123360788</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.76701774140084</v>
+        <v>-9.932098587932163</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.6548176789962421</v>
       </c>
       <c r="E68" t="n">
-        <v>-12.01982338367949</v>
+        <v>-12.38092218835713</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9434940904498971</v>
+        <v>1.025425721633419</v>
       </c>
       <c r="G68" t="n">
-        <v>-9.704305610788971</v>
+        <v>-9.88344759057231</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.5757867647544218</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.85315836850431</v>
+        <v>-12.22884199854764</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7427105340691861</v>
+        <v>0.8404314824798295</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.658508735448613</v>
+        <v>-9.839522914538319</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.4605104420057761</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.74030271800863</v>
+        <v>-12.10405926016315</v>
       </c>
       <c r="F70" t="n">
-        <v>0.8804284676613026</v>
+        <v>0.9807416920346077</v>
       </c>
       <c r="G70" t="n">
-        <v>-9.596739250641351</v>
+        <v>-9.781353813012529</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.3189468615677469</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.56604416718526</v>
+        <v>-11.92356877318712</v>
       </c>
       <c r="F71" t="n">
-        <v>0.7848284723110188</v>
+        <v>0.878975222045871</v>
       </c>
       <c r="G71" t="n">
-        <v>-9.242081858961834</v>
+        <v>-9.425295544928948</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1617975665462454</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.50248103688868</v>
+        <v>-11.86126250396334</v>
       </c>
       <c r="F72" t="n">
-        <v>0.8218011355360533</v>
+        <v>0.9327714944225234</v>
       </c>
       <c r="G72" t="n">
-        <v>-9.097503558680652</v>
+        <v>-9.280586321619349</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.0003186161603259622</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.496995361998</v>
+        <v>-11.84508041765097</v>
       </c>
       <c r="F73" t="n">
-        <v>0.6478306153751973</v>
+        <v>0.7460359789909845</v>
       </c>
       <c r="G73" t="n">
-        <v>-9.064785893879179</v>
+        <v>-9.260659836694241</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.1545069269639613</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.61850502467206</v>
+        <v>-11.9662365881483</v>
       </c>
       <c r="F74" t="n">
-        <v>0.7447005641011284</v>
+        <v>0.8399863441832107</v>
       </c>
       <c r="G74" t="n">
-        <v>-8.839192423613397</v>
+        <v>-9.034948535702885</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.2919847910354465</v>
       </c>
       <c r="E75" t="n">
-        <v>-11.67023271319972</v>
+        <v>-12.01368309364672</v>
       </c>
       <c r="F75" t="n">
-        <v>0.5878940529657752</v>
+        <v>0.6994142885715979</v>
       </c>
       <c r="G75" t="n">
-        <v>-8.66748687184416</v>
+        <v>-8.860480508034044</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.4028772057610431</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.03672554664815</v>
+        <v>-12.3747949906272</v>
       </c>
       <c r="F76" t="n">
-        <v>0.6960757513469578</v>
+        <v>0.8130292926320968</v>
       </c>
       <c r="G76" t="n">
-        <v>-8.414556673244853</v>
+        <v>-8.614240476186859</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.4797723452149695</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.42751769417084</v>
+        <v>-12.7768857955023</v>
       </c>
       <c r="F77" t="n">
-        <v>0.60105181732171</v>
+        <v>0.7199430194274244</v>
       </c>
       <c r="G77" t="n">
-        <v>-8.227585496362163</v>
+        <v>-8.416088472677336</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.5175759535118533</v>
       </c>
       <c r="E78" t="n">
-        <v>-12.98704344071768</v>
+        <v>-13.32321450078468</v>
       </c>
       <c r="F78" t="n">
-        <v>0.5822381781381496</v>
+        <v>0.7039965945662021</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.993770059911777</v>
+        <v>-8.191215079067849</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.5134664801325012</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.40036744143097</v>
+        <v>-13.74647555935485</v>
       </c>
       <c r="F79" t="n">
-        <v>0.4650620677047013</v>
+        <v>0.5793709638158117</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.954414597569549</v>
+        <v>-8.151623955274468</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.4661149965365288</v>
       </c>
       <c r="E80" t="n">
-        <v>-13.91702898847401</v>
+        <v>-14.2669076896163</v>
       </c>
       <c r="F80" t="n">
-        <v>0.7200346655473165</v>
+        <v>0.8632251817272745</v>
       </c>
       <c r="G80" t="n">
-        <v>-7.670089056755784</v>
+        <v>-7.874800303989013</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.3757195111449939</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.77419514782466</v>
+        <v>-15.11371783741914</v>
       </c>
       <c r="F81" t="n">
-        <v>0.5405784704957772</v>
+        <v>0.6686604691963834</v>
       </c>
       <c r="G81" t="n">
-        <v>-7.639309052774886</v>
+        <v>-7.830810166440814</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.2432012097847517</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.43857714783089</v>
+        <v>-15.78197515906652</v>
       </c>
       <c r="F82" t="n">
-        <v>0.6362962965716366</v>
+        <v>0.7738178456211272</v>
       </c>
       <c r="G82" t="n">
-        <v>-7.48779183198759</v>
+        <v>-7.681976867736071</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.06776892570473117</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.20030041946535</v>
+        <v>-16.537741432908</v>
       </c>
       <c r="F83" t="n">
-        <v>0.5040116686588364</v>
+        <v>0.6462464467313483</v>
       </c>
       <c r="G83" t="n">
-        <v>-7.250022520079003</v>
+        <v>-7.468114100816476</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1504181212448829</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.28273274151074</v>
+        <v>-17.60649229848378</v>
       </c>
       <c r="F84" t="n">
-        <v>0.5242261842464614</v>
+        <v>0.6832714791677497</v>
       </c>
       <c r="G84" t="n">
-        <v>-7.037285691203796</v>
+        <v>-7.244759414336629</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.4104069470943404</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.1043532986461</v>
+        <v>-18.43044328552497</v>
       </c>
       <c r="F85" t="n">
-        <v>0.5771845492412434</v>
+        <v>0.7345147524902655</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.791058751659454</v>
+        <v>-7.003114780786891</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.7126941017078896</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.12787025790372</v>
+        <v>-19.45423518314227</v>
       </c>
       <c r="F86" t="n">
-        <v>0.5508297436208488</v>
+        <v>0.7238576179771005</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.489687032545762</v>
+        <v>-6.702986830443162</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-1.05357365582101</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.14980304851749</v>
+        <v>-20.47644291211571</v>
       </c>
       <c r="F87" t="n">
-        <v>0.5904470520199119</v>
+        <v>0.7736476456841848</v>
       </c>
       <c r="G87" t="n">
-        <v>-6.105048267358692</v>
+        <v>-6.328717169106739</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-1.425760363014335</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.46894420594128</v>
+        <v>-21.80489269685997</v>
       </c>
       <c r="F88" t="n">
-        <v>0.6994142885715979</v>
+        <v>0.8736990240006554</v>
       </c>
       <c r="G88" t="n">
-        <v>-5.934324638302583</v>
+        <v>-6.17193684257707</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-1.822483433165951</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.03005730448586</v>
+        <v>-23.36812674846491</v>
       </c>
       <c r="F89" t="n">
-        <v>0.52611147585567</v>
+        <v>0.7133052218866693</v>
       </c>
       <c r="G89" t="n">
-        <v>-5.569664727251987</v>
+        <v>-5.792482629315323</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-2.232382834818368</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.54001877582781</v>
+        <v>-24.87418671356003</v>
       </c>
       <c r="F90" t="n">
-        <v>0.345686450393843</v>
+        <v>0.5339537652578639</v>
       </c>
       <c r="G90" t="n">
-        <v>-5.342421626828148</v>
+        <v>-5.575857386496124</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-2.641079949251414</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.95130356065167</v>
+        <v>-26.26613416708666</v>
       </c>
       <c r="F91" t="n">
-        <v>0.2991171291858234</v>
+        <v>0.4820951537017869</v>
       </c>
       <c r="G91" t="n">
-        <v>-5.36079012771509</v>
+        <v>-5.585244567633642</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.036202361060858</v>
       </c>
       <c r="E92" t="n">
-        <v>-27.66021566597649</v>
+        <v>-27.98121274704993</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1397314343906502</v>
+        <v>0.317682014615391</v>
       </c>
       <c r="G92" t="n">
-        <v>-5.061814300021434</v>
+        <v>-5.282301772178942</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-3.402158810861913</v>
       </c>
       <c r="E93" t="n">
-        <v>-29.60503797620637</v>
+        <v>-29.91772144497532</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1586890889054696</v>
+        <v>0.334505623767009</v>
       </c>
       <c r="G93" t="n">
-        <v>-5.105686606844057</v>
+        <v>-5.343887964746421</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-3.723236114826162</v>
       </c>
       <c r="E94" t="n">
-        <v>-31.74989758155499</v>
+        <v>-32.05172753126814</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1546828442359014</v>
+        <v>0.3256814116516856</v>
       </c>
       <c r="G94" t="n">
-        <v>-5.161289617012867</v>
+        <v>-5.378700398002571</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-3.98982695404714</v>
       </c>
       <c r="E95" t="n">
-        <v>-33.91804839365903</v>
+        <v>-34.2084618552942</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.2139047576672126</v>
+        <v>-0.03927962236427029</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.301285611299445</v>
+        <v>-5.505172043453645</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.190307488959385</v>
       </c>
       <c r="E96" t="n">
-        <v>-35.99905683804855</v>
+        <v>-36.27297399810314</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.3370116812879628</v>
+        <v>-0.1654239602443009</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.417178676054404</v>
+        <v>-5.610735281266482</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.319397588801848</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.29153215793762</v>
+        <v>-38.56414008770805</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.6318503412836338</v>
+        <v>-0.4691915707780292</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.620672339123352</v>
+        <v>-5.81733182010892</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.373916629456272</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.74345863413608</v>
+        <v>-41.02070123911248</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.9198286345902404</v>
+        <v>-0.7455569914640248</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.868247785860392</v>
+        <v>-6.057012608232399</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.362925003154922</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.11591483208527</v>
+        <v>-43.39326217548439</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.7978869259224038</v>
+        <v>-0.6091613804589225</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.247885291361923</v>
+        <v>-6.436938144396447</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.285820506775351</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.65470873763858</v>
+        <v>-45.91777237863738</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.9318080916904198</v>
+        <v>-0.7416685775200321</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.431517931019973</v>
+        <v>-6.613749694273958</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.173713292080717</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.12615583737405</v>
+        <v>-48.38184851187296</v>
       </c>
       <c r="F101" t="n">
-        <v>-1.071241116954802</v>
+        <v>-0.8638590399418615</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.792760751028879</v>
+        <v>-6.953285476171282</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.019909917366148</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.46688938553773</v>
+        <v>-50.71284138672239</v>
       </c>
       <c r="F102" t="n">
-        <v>-1.163358559749187</v>
+        <v>-0.9638318644412818</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.076588784334658</v>
+        <v>-7.238789324240802</v>
       </c>
     </row>
   </sheetData>
